--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H2">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25102137993188</v>
+        <v>1.269979666666667</v>
       </c>
       <c r="N2">
-        <v>1.25102137993188</v>
+        <v>3.809939</v>
       </c>
       <c r="O2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="P2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="Q2">
-        <v>0.5726874618167184</v>
+        <v>0.09260564731366666</v>
       </c>
       <c r="R2">
-        <v>0.5726874618167184</v>
+        <v>0.833450825823</v>
       </c>
       <c r="S2">
-        <v>0.05145913190080674</v>
+        <v>0.00517678608268288</v>
       </c>
       <c r="T2">
-        <v>0.05145913190080674</v>
+        <v>0.005176786082682881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H3">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.4337475366283</v>
+        <v>20.604156</v>
       </c>
       <c r="N3">
-        <v>20.4337475366283</v>
+        <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627787</v>
       </c>
       <c r="P3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627789</v>
       </c>
       <c r="Q3">
-        <v>9.354077556046631</v>
+        <v>1.502434451364</v>
       </c>
       <c r="R3">
-        <v>9.354077556046631</v>
+        <v>13.521910062276</v>
       </c>
       <c r="S3">
-        <v>0.8405155392087675</v>
+        <v>0.08398820140655291</v>
       </c>
       <c r="T3">
-        <v>0.8405155392087675</v>
+        <v>0.08398820140655293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H4">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.537520032554469</v>
+        <v>0.6519523333333334</v>
       </c>
       <c r="N4">
-        <v>0.537520032554469</v>
+        <v>1.955857</v>
       </c>
       <c r="O4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="P4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="Q4">
-        <v>0.2460637268533497</v>
+        <v>0.04753971219433333</v>
       </c>
       <c r="R4">
-        <v>0.2460637268533497</v>
+        <v>0.427857409749</v>
       </c>
       <c r="S4">
-        <v>0.02211018508416899</v>
+        <v>0.002657536852248261</v>
       </c>
       <c r="T4">
-        <v>0.02211018508416899</v>
+        <v>0.002657536852248262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.457775918943849</v>
+        <v>0.072919</v>
       </c>
       <c r="H5">
-        <v>0.457775918943849</v>
+        <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1016383815134179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.574735221451795</v>
+        <v>0.7481240000000001</v>
       </c>
       <c r="N5">
-        <v>0.574735221451795</v>
+        <v>2.244372</v>
       </c>
       <c r="O5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428538</v>
       </c>
       <c r="P5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428539</v>
       </c>
       <c r="Q5">
-        <v>0.263099944149492</v>
+        <v>0.05455245395600001</v>
       </c>
       <c r="R5">
-        <v>0.263099944149492</v>
+        <v>0.4909720856040001</v>
       </c>
       <c r="S5">
-        <v>0.02364098331424017</v>
+        <v>0.003049558991354755</v>
       </c>
       <c r="T5">
-        <v>0.02364098331424017</v>
+        <v>0.003049558991354755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.072919</v>
+      </c>
+      <c r="H6">
+        <v>0.218757</v>
+      </c>
+      <c r="I6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="J6">
+        <v>0.1016383815134179</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.659922</v>
+      </c>
+      <c r="N6">
+        <v>4.979766</v>
+      </c>
+      <c r="O6">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P6">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q6">
+        <v>0.121039852318</v>
+      </c>
+      <c r="R6">
+        <v>1.089358670862</v>
+      </c>
+      <c r="S6">
+        <v>0.006766298180579109</v>
+      </c>
+      <c r="T6">
+        <v>0.006766298180579111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.93355</v>
+      </c>
+      <c r="I7">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J7">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.269979666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.809939</v>
+      </c>
+      <c r="O7">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="P7">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="Q7">
+        <v>0.8185230614944444</v>
+      </c>
+      <c r="R7">
+        <v>7.36670755345</v>
+      </c>
+      <c r="S7">
+        <v>0.045756591698421</v>
+      </c>
+      <c r="T7">
+        <v>0.045756591698421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="H6">
-        <v>0.457775918943849</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.5139452088503</v>
-      </c>
-      <c r="N6">
-        <v>1.5139452088503</v>
-      </c>
-      <c r="O6">
-        <v>0.06227416049201662</v>
-      </c>
-      <c r="P6">
-        <v>0.06227416049201662</v>
-      </c>
-      <c r="Q6">
-        <v>0.6930476592120836</v>
-      </c>
-      <c r="R6">
-        <v>0.6930476592120836</v>
-      </c>
-      <c r="S6">
-        <v>0.06227416049201662</v>
-      </c>
-      <c r="T6">
-        <v>0.06227416049201662</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.93355</v>
+      </c>
+      <c r="I8">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J8">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.604156</v>
+      </c>
+      <c r="N8">
+        <v>61.812468</v>
+      </c>
+      <c r="O8">
+        <v>0.8263433572627787</v>
+      </c>
+      <c r="P8">
+        <v>0.8263433572627789</v>
+      </c>
+      <c r="Q8">
+        <v>13.2797219446</v>
+      </c>
+      <c r="R8">
+        <v>119.5174975014</v>
+      </c>
+      <c r="S8">
+        <v>0.7423551558562259</v>
+      </c>
+      <c r="T8">
+        <v>0.7423551558562259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.93355</v>
+      </c>
+      <c r="I9">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J9">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6519523333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.955857</v>
+      </c>
+      <c r="O9">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="P9">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="Q9">
+        <v>0.4201941447055556</v>
+      </c>
+      <c r="R9">
+        <v>3.78174730235</v>
+      </c>
+      <c r="S9">
+        <v>0.0234894443636758</v>
+      </c>
+      <c r="T9">
+        <v>0.0234894443636758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.93355</v>
+      </c>
+      <c r="I10">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J10">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7481240000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.244372</v>
+      </c>
+      <c r="O10">
+        <v>0.03000400976428538</v>
+      </c>
+      <c r="P10">
+        <v>0.03000400976428539</v>
+      </c>
+      <c r="Q10">
+        <v>0.4821783867333334</v>
+      </c>
+      <c r="R10">
+        <v>4.3396054806</v>
+      </c>
+      <c r="S10">
+        <v>0.02695445077293063</v>
+      </c>
+      <c r="T10">
+        <v>0.02695445077293063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6445166666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.93355</v>
+      </c>
+      <c r="I11">
+        <v>0.8983616184865821</v>
+      </c>
+      <c r="J11">
+        <v>0.898361618486582</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.659922</v>
+      </c>
+      <c r="N11">
+        <v>4.979766</v>
+      </c>
+      <c r="O11">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P11">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q11">
+        <v>1.069847394366666</v>
+      </c>
+      <c r="R11">
+        <v>9.628626549299998</v>
+      </c>
+      <c r="S11">
+        <v>0.05980597579532878</v>
+      </c>
+      <c r="T11">
+        <v>0.05980597579532879</v>
       </c>
     </row>
   </sheetData>
